--- a/ResumenPentaho.xlsx
+++ b/ResumenPentaho.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\Base de datos 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\GitHub\database_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF46365-D117-4F39-AADC-90381659CFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E67A22D-4045-4F73-A5E4-E7856443895F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_1" sheetId="1" r:id="rId1"/>
     <sheet name="10_5" sheetId="2" r:id="rId2"/>
-    <sheet name="10_9" sheetId="4" r:id="rId3"/>
-    <sheet name="10_11" sheetId="3" r:id="rId4"/>
+    <sheet name="10_6" sheetId="5" r:id="rId3"/>
+    <sheet name="10_9" sheetId="4" r:id="rId4"/>
+    <sheet name="10_11" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1560">
   <si>
     <t>Barrio</t>
   </si>
@@ -3025,6 +3026,1689 @@
   </si>
   <si>
     <t>0,884</t>
+  </si>
+  <si>
+    <t>Sin NBI</t>
+  </si>
+  <si>
+    <t>Una NBI</t>
+  </si>
+  <si>
+    <t>Dos NBI</t>
+  </si>
+  <si>
+    <t>Tres o más NBI</t>
+  </si>
+  <si>
+    <t>Cantidad de hogares</t>
+  </si>
+  <si>
+    <t>27.454</t>
+  </si>
+  <si>
+    <t>26.493</t>
+  </si>
+  <si>
+    <t>34.502</t>
+  </si>
+  <si>
+    <t>2.718</t>
+  </si>
+  <si>
+    <t>2.257</t>
+  </si>
+  <si>
+    <t>2.982</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>14.418</t>
+  </si>
+  <si>
+    <t>13.191</t>
+  </si>
+  <si>
+    <t>17.316</t>
+  </si>
+  <si>
+    <t>4.233</t>
+  </si>
+  <si>
+    <t>2.993</t>
+  </si>
+  <si>
+    <t>3.856</t>
+  </si>
+  <si>
+    <t>1.557</t>
+  </si>
+  <si>
+    <t>1.157</t>
+  </si>
+  <si>
+    <t>1.033</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>13.318</t>
+  </si>
+  <si>
+    <t>14.405</t>
+  </si>
+  <si>
+    <t>17.658</t>
+  </si>
+  <si>
+    <t>1.758</t>
+  </si>
+  <si>
+    <t>2.151</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>12.038</t>
+  </si>
+  <si>
+    <t>13.485</t>
+  </si>
+  <si>
+    <t>16.757</t>
+  </si>
+  <si>
+    <t>2.377</t>
+  </si>
+  <si>
+    <t>2.774</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>11.388</t>
+  </si>
+  <si>
+    <t>12.260</t>
+  </si>
+  <si>
+    <t>15.140</t>
+  </si>
+  <si>
+    <t>1.234</t>
+  </si>
+  <si>
+    <t>1.491</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>10.465</t>
+  </si>
+  <si>
+    <t>11.696</t>
+  </si>
+  <si>
+    <t>14.082</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>7.724</t>
+  </si>
+  <si>
+    <t>10.276</t>
+  </si>
+  <si>
+    <t>11.748</t>
+  </si>
+  <si>
+    <t>2.396</t>
+  </si>
+  <si>
+    <t>3.552</t>
+  </si>
+  <si>
+    <t>3.692</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>1.350</t>
+  </si>
+  <si>
+    <t>1.388</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>839</t>
+  </si>
+  <si>
+    <t>8.103</t>
+  </si>
+  <si>
+    <t>6.866</t>
+  </si>
+  <si>
+    <t>9.311</t>
+  </si>
+  <si>
+    <t>1.962</t>
+  </si>
+  <si>
+    <t>1.436</t>
+  </si>
+  <si>
+    <t>1.912</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>9.669</t>
+  </si>
+  <si>
+    <t>9.809</t>
+  </si>
+  <si>
+    <t>12.130</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>1.032</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>4.410</t>
+  </si>
+  <si>
+    <t>6.868</t>
+  </si>
+  <si>
+    <t>7.239</t>
+  </si>
+  <si>
+    <t>3.054</t>
+  </si>
+  <si>
+    <t>5.149</t>
+  </si>
+  <si>
+    <t>5.237</t>
+  </si>
+  <si>
+    <t>2.963</t>
+  </si>
+  <si>
+    <t>3.110</t>
+  </si>
+  <si>
+    <t>1.117</t>
+  </si>
+  <si>
+    <t>2.409</t>
+  </si>
+  <si>
+    <t>2.363</t>
+  </si>
+  <si>
+    <t>5.912</t>
+  </si>
+  <si>
+    <t>8.152</t>
+  </si>
+  <si>
+    <t>9.020</t>
+  </si>
+  <si>
+    <t>2.106</t>
+  </si>
+  <si>
+    <t>3.225</t>
+  </si>
+  <si>
+    <t>3.463</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>1.571</t>
+  </si>
+  <si>
+    <t>1.581</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>1.097</t>
+  </si>
+  <si>
+    <t>1.107</t>
+  </si>
+  <si>
+    <t>7.797</t>
+  </si>
+  <si>
+    <t>8.955</t>
+  </si>
+  <si>
+    <t>1.813</t>
+  </si>
+  <si>
+    <t>2.898</t>
+  </si>
+  <si>
+    <t>3.078</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>1.293</t>
+  </si>
+  <si>
+    <t>1.296</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>5.827</t>
+  </si>
+  <si>
+    <t>7.599</t>
+  </si>
+  <si>
+    <t>8.810</t>
+  </si>
+  <si>
+    <t>1.892</t>
+  </si>
+  <si>
+    <t>2.818</t>
+  </si>
+  <si>
+    <t>2.907</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>5.903</t>
+  </si>
+  <si>
+    <t>8.555</t>
+  </si>
+  <si>
+    <t>1.744</t>
+  </si>
+  <si>
+    <t>2.385</t>
+  </si>
+  <si>
+    <t>2.607</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>6.054</t>
+  </si>
+  <si>
+    <t>7.635</t>
+  </si>
+  <si>
+    <t>9.037</t>
+  </si>
+  <si>
+    <t>1.406</t>
+  </si>
+  <si>
+    <t>1.930</t>
+  </si>
+  <si>
+    <t>2.043</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>6.077</t>
+  </si>
+  <si>
+    <t>7.477</t>
+  </si>
+  <si>
+    <t>8.931</t>
+  </si>
+  <si>
+    <t>1.453</t>
+  </si>
+  <si>
+    <t>1.842</t>
+  </si>
+  <si>
+    <t>1.986</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>6.187</t>
+  </si>
+  <si>
+    <t>5.463</t>
+  </si>
+  <si>
+    <t>7.363</t>
+  </si>
+  <si>
+    <t>1.241</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>1.182</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5.621</t>
+  </si>
+  <si>
+    <t>5.967</t>
+  </si>
+  <si>
+    <t>7.245</t>
+  </si>
+  <si>
+    <t>1.500</t>
+  </si>
+  <si>
+    <t>1.430</t>
+  </si>
+  <si>
+    <t>1.620</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>4.334</t>
+  </si>
+  <si>
+    <t>6.551</t>
+  </si>
+  <si>
+    <t>2.153</t>
+  </si>
+  <si>
+    <t>3.701</t>
+  </si>
+  <si>
+    <t>3.761</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>1.572</t>
+  </si>
+  <si>
+    <t>1.585</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>889</t>
+  </si>
+  <si>
+    <t>4.640</t>
+  </si>
+  <si>
+    <t>6.275</t>
+  </si>
+  <si>
+    <t>7.226</t>
+  </si>
+  <si>
+    <t>1.921</t>
+  </si>
+  <si>
+    <t>2.797</t>
+  </si>
+  <si>
+    <t>2.983</t>
+  </si>
+  <si>
+    <t>1.108</t>
+  </si>
+  <si>
+    <t>1.106</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>7.704</t>
+  </si>
+  <si>
+    <t>9.295</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>6.290</t>
+  </si>
+  <si>
+    <t>6.976</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>5.300</t>
+  </si>
+  <si>
+    <t>6.468</t>
+  </si>
+  <si>
+    <t>7.693</t>
+  </si>
+  <si>
+    <t>1.446</t>
+  </si>
+  <si>
+    <t>1.875</t>
+  </si>
+  <si>
+    <t>2.067</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>5.284</t>
+  </si>
+  <si>
+    <t>7.597</t>
+  </si>
+  <si>
+    <t>1.474</t>
+  </si>
+  <si>
+    <t>1.942</t>
+  </si>
+  <si>
+    <t>2.202</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>4.308</t>
+  </si>
+  <si>
+    <t>5.938</t>
+  </si>
+  <si>
+    <t>1.639</t>
+  </si>
+  <si>
+    <t>2.444</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>1.078</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>4.438</t>
+  </si>
+  <si>
+    <t>5.951</t>
+  </si>
+  <si>
+    <t>6.731</t>
+  </si>
+  <si>
+    <t>1.543</t>
+  </si>
+  <si>
+    <t>2.266</t>
+  </si>
+  <si>
+    <t>2.460</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>3.775</t>
+  </si>
+  <si>
+    <t>4.979</t>
+  </si>
+  <si>
+    <t>5.649</t>
+  </si>
+  <si>
+    <t>1.811</t>
+  </si>
+  <si>
+    <t>2.533</t>
+  </si>
+  <si>
+    <t>2.803</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>1.156</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>5.434</t>
+  </si>
+  <si>
+    <t>7.576</t>
+  </si>
+  <si>
+    <t>1.125</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>3.907</t>
+  </si>
+  <si>
+    <t>5.308</t>
+  </si>
+  <si>
+    <t>5.937</t>
+  </si>
+  <si>
+    <t>1.743</t>
+  </si>
+  <si>
+    <t>2.611</t>
+  </si>
+  <si>
+    <t>2.660</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>1.126</t>
+  </si>
+  <si>
+    <t>1.146</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>4.807</t>
+  </si>
+  <si>
+    <t>5.945</t>
+  </si>
+  <si>
+    <t>6.970</t>
+  </si>
+  <si>
+    <t>1.311</t>
+  </si>
+  <si>
+    <t>1.658</t>
+  </si>
+  <si>
+    <t>1.867</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>5.435</t>
+  </si>
+  <si>
+    <t>6.238</t>
+  </si>
+  <si>
+    <t>7.604</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>3.719</t>
+  </si>
+  <si>
+    <t>5.256</t>
+  </si>
+  <si>
+    <t>5.881</t>
+  </si>
+  <si>
+    <t>1.584</t>
+  </si>
+  <si>
+    <t>2.553</t>
+  </si>
+  <si>
+    <t>2.686</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>1.416</t>
+  </si>
+  <si>
+    <t>1.414</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>4.423</t>
+  </si>
+  <si>
+    <t>5.558</t>
+  </si>
+  <si>
+    <t>6.534</t>
+  </si>
+  <si>
+    <t>1.347</t>
+  </si>
+  <si>
+    <t>1.864</t>
+  </si>
+  <si>
+    <t>1.974</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>3.672</t>
+  </si>
+  <si>
+    <t>5.389</t>
+  </si>
+  <si>
+    <t>5.737</t>
+  </si>
+  <si>
+    <t>1.718</t>
+  </si>
+  <si>
+    <t>2.698</t>
+  </si>
+  <si>
+    <t>2.756</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>1.118</t>
+  </si>
+  <si>
+    <t>1.185</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>5.084</t>
+  </si>
+  <si>
+    <t>5.686</t>
+  </si>
+  <si>
+    <t>6.926</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>1.058</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>4.246</t>
+  </si>
+  <si>
+    <t>5.467</t>
+  </si>
+  <si>
+    <t>6.186</t>
+  </si>
+  <si>
+    <t>1.353</t>
+  </si>
+  <si>
+    <t>1.992</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>5.413</t>
+  </si>
+  <si>
+    <t>6.730</t>
+  </si>
+  <si>
+    <t>1.072</t>
+  </si>
+  <si>
+    <t>1.220</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>4.390</t>
+  </si>
+  <si>
+    <t>4.330</t>
+  </si>
+  <si>
+    <t>5.288</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>1.037</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>4.888</t>
+  </si>
+  <si>
+    <t>4.942</t>
+  </si>
+  <si>
+    <t>5.947</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.597</t>
+  </si>
+  <si>
+    <t>4.955</t>
+  </si>
+  <si>
+    <t>5.580</t>
+  </si>
+  <si>
+    <t>1.443</t>
+  </si>
+  <si>
+    <t>2.292</t>
+  </si>
+  <si>
+    <t>2.528</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>3.978</t>
+  </si>
+  <si>
+    <t>3.744</t>
+  </si>
+  <si>
+    <t>4.503</t>
+  </si>
+  <si>
+    <t>1.144</t>
+  </si>
+  <si>
+    <t>1.132</t>
+  </si>
+  <si>
+    <t>1.269</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>4.326</t>
+  </si>
+  <si>
+    <t>4.583</t>
+  </si>
+  <si>
+    <t>5.441</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>3.107</t>
+  </si>
+  <si>
+    <t>4.577</t>
+  </si>
+  <si>
+    <t>4.745</t>
+  </si>
+  <si>
+    <t>1.429</t>
+  </si>
+  <si>
+    <t>2.229</t>
+  </si>
+  <si>
+    <t>2.258</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>1.176</t>
+  </si>
+  <si>
+    <t>1.162</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>2.846</t>
+  </si>
+  <si>
+    <t>4.333</t>
+  </si>
+  <si>
+    <t>4.620</t>
+  </si>
+  <si>
+    <t>1.642</t>
+  </si>
+  <si>
+    <t>2.735</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>1.435</t>
+  </si>
+  <si>
+    <t>1.370</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>4.075</t>
+  </si>
+  <si>
+    <t>4.629</t>
+  </si>
+  <si>
+    <t>5.715</t>
+  </si>
+  <si>
+    <t>1.128</t>
+  </si>
+  <si>
+    <t>1.184</t>
+  </si>
+  <si>
+    <t>1.380</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>4.424</t>
+  </si>
+  <si>
+    <t>4.977</t>
+  </si>
+  <si>
+    <t>6.247</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>1.050</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>4.553</t>
+  </si>
+  <si>
+    <t>5.339</t>
+  </si>
+  <si>
+    <t>6.586</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>4.116</t>
+  </si>
+  <si>
+    <t>5.128</t>
+  </si>
+  <si>
+    <t>5.992</t>
+  </si>
+  <si>
+    <t>1.348</t>
+  </si>
+  <si>
+    <t>1.485</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>4.166</t>
+  </si>
+  <si>
+    <t>4.597</t>
+  </si>
+  <si>
+    <t>1.419</t>
+  </si>
+  <si>
+    <t>2.033</t>
+  </si>
+  <si>
+    <t>2.103</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>3.662</t>
+  </si>
+  <si>
+    <t>5.187</t>
+  </si>
+  <si>
+    <t>5.632</t>
+  </si>
+  <si>
+    <t>1.415</t>
+  </si>
+  <si>
+    <t>1.394</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>4.653</t>
+  </si>
+  <si>
+    <t>6.142</t>
+  </si>
+  <si>
+    <t>7.144</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.720</t>
+  </si>
+  <si>
+    <t>3.993</t>
+  </si>
+  <si>
+    <t>4.928</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>4.318</t>
+  </si>
+  <si>
+    <t>6.651</t>
+  </si>
+  <si>
+    <t>7.466</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3.079</t>
+  </si>
+  <si>
+    <t>3.921</t>
+  </si>
+  <si>
+    <t>4.567</t>
+  </si>
+  <si>
+    <t>1.010</t>
+  </si>
+  <si>
+    <t>1.400</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>3.623</t>
+  </si>
+  <si>
+    <t>4.107</t>
+  </si>
+  <si>
+    <t>5.030</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.632</t>
+  </si>
+  <si>
+    <t>4.571</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>4.123</t>
+  </si>
+  <si>
+    <t>4.708</t>
+  </si>
+  <si>
+    <t>1.212</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>3.693</t>
+  </si>
+  <si>
+    <t>3.648</t>
+  </si>
+  <si>
+    <t>4.716</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>3.541</t>
+  </si>
+  <si>
+    <t>5.252</t>
+  </si>
+  <si>
+    <t>5.756</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>2.988</t>
+  </si>
+  <si>
+    <t>3.342</t>
+  </si>
+  <si>
+    <t>4.125</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>2.861</t>
+  </si>
+  <si>
+    <t>3.316</t>
+  </si>
+  <si>
+    <t>4.076</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1.332</t>
+  </si>
+  <si>
+    <t>1.948</t>
+  </si>
+  <si>
+    <t>2.157</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>405</t>
   </si>
 </sst>
 </file>
@@ -3089,7 +4773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3099,6 +4783,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3928,34 +5618,34 @@
       <c r="A1" t="s">
         <v>688</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6174,10 +7864,2664 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334A86F9-C9DD-45FD-A816-640E9364391D}">
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1753</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A693FF79-244A-4E56-BBE3-550F4DFF4680}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -6701,7 +11045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7BA310-EFEA-446E-97F2-2C16B8115C59}">
   <dimension ref="A1:E64"/>
   <sheetViews>
